--- a/attached_assets/CR_1762338481711.xlsx
+++ b/attached_assets/CR_1762338481711.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtnenggdiv-my.sharepoint.com/personal/gtnit_gtnengg_net/Documents/Narain_IT/Desktop/Contract Review/attached_assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="13_ncr:1_{32A43AB2-419B-41F6-8D47-EBC35456884B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{833BC0C2-0190-4299-9448-15E57F9ADB7E}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="13_ncr:1_{32A43AB2-419B-41F6-8D47-EBC35456884B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41FB9CB2-A51D-4642-A62F-9D81553AEFBC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8B64012F-F0B5-4D20-8D47-A5ECE23983BC}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="FMCCustomer">[1]Sheet12!$A$1:$A$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CR!$A$1:$AC$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CR!$A$1:$AC$41</definedName>
     <definedName name="zone" localSheetId="0">#REF!</definedName>
     <definedName name="zone">#REF!</definedName>
   </definedNames>
@@ -934,7 +934,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -969,17 +969,86 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -988,6 +1057,69 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1103,168 +1235,6 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1748,10 +1718,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AC42"/>
+  <dimension ref="A1:AC41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="S38" sqref="S38"/>
+      <selection activeCell="F38" sqref="F38:R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1776,169 +1746,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="e" vm="1">
+      <c r="A1" s="68" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="31" t="s">
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="33" t="s">
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="35"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="79"/>
     </row>
     <row r="2" spans="1:29" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="36" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="31" t="s">
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="39" t="s">
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="41"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="85"/>
     </row>
     <row r="3" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="64"/>
       <c r="C3" s="3"/>
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="64"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="62"/>
       <c r="L3" s="58" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="58"/>
       <c r="N3" s="58"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="64"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="62"/>
       <c r="V3" s="59" t="s">
         <v>7</v>
       </c>
       <c r="W3" s="60"/>
       <c r="X3" s="61"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="65"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="46"/>
     </row>
     <row r="4" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="53"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="56"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="96"/>
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="98"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="100"/>
     </row>
     <row r="5" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="49"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="57" t="s">
         <v>14</v>
       </c>
@@ -1954,125 +1924,125 @@
       <c r="P5" s="57"/>
       <c r="Q5" s="57"/>
       <c r="R5" s="57"/>
-      <c r="S5" s="68" t="s">
+      <c r="S5" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="68"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="68"/>
-      <c r="Z5" s="68"/>
-      <c r="AA5" s="69" t="s">
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="AB5" s="70"/>
-      <c r="AC5" s="71"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="50"/>
     </row>
     <row r="6" spans="1:29" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="66" t="s">
+      <c r="A6" s="87"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="66" t="s">
+      <c r="G6" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="66" t="s">
+      <c r="H6" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="66" t="s">
+      <c r="I6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="66" t="s">
+      <c r="J6" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="66" t="s">
+      <c r="K6" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="66" t="s">
+      <c r="L6" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="66" t="s">
+      <c r="M6" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="66" t="s">
+      <c r="N6" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="66" t="s">
+      <c r="O6" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="66" t="s">
+      <c r="P6" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="Q6" s="66" t="s">
+      <c r="Q6" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="R6" s="66" t="s">
+      <c r="R6" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="S6" s="66" t="s">
+      <c r="S6" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="T6" s="66" t="s">
+      <c r="T6" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="V6" s="66" t="s">
+      <c r="V6" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="W6" s="66" t="s">
+      <c r="W6" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="X6" s="66" t="s">
+      <c r="X6" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="Y6" s="66" t="s">
+      <c r="Y6" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="Z6" s="66" t="s">
+      <c r="Z6" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="AA6" s="72"/>
-      <c r="AB6" s="73"/>
-      <c r="AC6" s="74"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="52"/>
+      <c r="AC6" s="53"/>
     </row>
     <row r="7" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="67"/>
-      <c r="V7" s="67"/>
-      <c r="W7" s="67"/>
-      <c r="X7" s="67"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="75"/>
-      <c r="AB7" s="76"/>
-      <c r="AC7" s="77"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="56"/>
     </row>
     <row r="8" spans="1:29" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -2101,9 +2071,9 @@
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
-      <c r="AA8" s="78"/>
-      <c r="AB8" s="78"/>
-      <c r="AC8" s="79"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="43"/>
     </row>
     <row r="9" spans="1:29" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
@@ -2132,9 +2102,9 @@
       <c r="X9" s="8"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="8"/>
-      <c r="AA9" s="80"/>
-      <c r="AB9" s="80"/>
-      <c r="AC9" s="81"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="16"/>
     </row>
     <row r="10" spans="1:29" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
@@ -2163,9 +2133,9 @@
       <c r="X10" s="8"/>
       <c r="Y10" s="10"/>
       <c r="Z10" s="11"/>
-      <c r="AA10" s="80"/>
-      <c r="AB10" s="80"/>
-      <c r="AC10" s="81"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="16"/>
     </row>
     <row r="11" spans="1:29" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
@@ -2194,9 +2164,9 @@
       <c r="X11" s="8"/>
       <c r="Y11" s="10"/>
       <c r="Z11" s="11"/>
-      <c r="AA11" s="80"/>
-      <c r="AB11" s="80"/>
-      <c r="AC11" s="81"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="16"/>
     </row>
     <row r="12" spans="1:29" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
@@ -2225,9 +2195,9 @@
       <c r="X12" s="8"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="11"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="18"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="41"/>
     </row>
     <row r="13" spans="1:29" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
@@ -2256,9 +2226,9 @@
       <c r="X13" s="8"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="11"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="18"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="41"/>
     </row>
     <row r="14" spans="1:29" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
@@ -2287,9 +2257,9 @@
       <c r="X14" s="8"/>
       <c r="Y14" s="10"/>
       <c r="Z14" s="11"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="18"/>
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="41"/>
     </row>
     <row r="15" spans="1:29" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
@@ -2318,9 +2288,9 @@
       <c r="X15" s="8"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="11"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="18"/>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="41"/>
     </row>
     <row r="16" spans="1:29" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
@@ -2349,9 +2319,9 @@
       <c r="X16" s="8"/>
       <c r="Y16" s="10"/>
       <c r="Z16" s="11"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="18"/>
+      <c r="AA16" s="39"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="41"/>
     </row>
     <row r="17" spans="1:29" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
@@ -2380,9 +2350,9 @@
       <c r="X17" s="8"/>
       <c r="Y17" s="10"/>
       <c r="Z17" s="11"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="18"/>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="41"/>
     </row>
     <row r="18" spans="1:29" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
@@ -2411,9 +2381,9 @@
       <c r="X18" s="8"/>
       <c r="Y18" s="10"/>
       <c r="Z18" s="11"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="17"/>
-      <c r="AC18" s="18"/>
+      <c r="AA18" s="39"/>
+      <c r="AB18" s="40"/>
+      <c r="AC18" s="41"/>
     </row>
     <row r="19" spans="1:29" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
@@ -2442,9 +2412,9 @@
       <c r="X19" s="8"/>
       <c r="Y19" s="10"/>
       <c r="Z19" s="11"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="18"/>
+      <c r="AA19" s="39"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="41"/>
     </row>
     <row r="20" spans="1:29" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
@@ -2473,9 +2443,9 @@
       <c r="X20" s="8"/>
       <c r="Y20" s="10"/>
       <c r="Z20" s="11"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="18"/>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="40"/>
+      <c r="AC20" s="41"/>
     </row>
     <row r="21" spans="1:29" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
@@ -2504,9 +2474,9 @@
       <c r="X21" s="8"/>
       <c r="Y21" s="10"/>
       <c r="Z21" s="11"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="17"/>
-      <c r="AC21" s="18"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="40"/>
+      <c r="AC21" s="41"/>
     </row>
     <row r="22" spans="1:29" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
@@ -2535,9 +2505,9 @@
       <c r="X22" s="8"/>
       <c r="Y22" s="10"/>
       <c r="Z22" s="11"/>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="17"/>
-      <c r="AC22" s="18"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="41"/>
     </row>
     <row r="23" spans="1:29" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
@@ -2566,9 +2536,9 @@
       <c r="X23" s="8"/>
       <c r="Y23" s="10"/>
       <c r="Z23" s="11"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="18"/>
+      <c r="AA23" s="39"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="41"/>
     </row>
     <row r="24" spans="1:29" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
@@ -2597,9 +2567,9 @@
       <c r="X24" s="8"/>
       <c r="Y24" s="10"/>
       <c r="Z24" s="11"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="17"/>
-      <c r="AC24" s="18"/>
+      <c r="AA24" s="39"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="41"/>
     </row>
     <row r="25" spans="1:29" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
@@ -2628,9 +2598,9 @@
       <c r="X25" s="8"/>
       <c r="Y25" s="10"/>
       <c r="Z25" s="11"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="17"/>
-      <c r="AC25" s="18"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="40"/>
+      <c r="AC25" s="41"/>
     </row>
     <row r="26" spans="1:29" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
@@ -2659,9 +2629,9 @@
       <c r="X26" s="8"/>
       <c r="Y26" s="10"/>
       <c r="Z26" s="11"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="17"/>
-      <c r="AC26" s="18"/>
+      <c r="AA26" s="39"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="41"/>
     </row>
     <row r="27" spans="1:29" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
@@ -2690,9 +2660,9 @@
       <c r="X27" s="8"/>
       <c r="Y27" s="10"/>
       <c r="Z27" s="11"/>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="17"/>
-      <c r="AC27" s="18"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="40"/>
+      <c r="AC27" s="41"/>
     </row>
     <row r="28" spans="1:29" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
@@ -2721,9 +2691,9 @@
       <c r="X28" s="8"/>
       <c r="Y28" s="10"/>
       <c r="Z28" s="11"/>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="18"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="40"/>
+      <c r="AC28" s="41"/>
     </row>
     <row r="29" spans="1:29" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
@@ -2752,9 +2722,9 @@
       <c r="X29" s="8"/>
       <c r="Y29" s="10"/>
       <c r="Z29" s="11"/>
-      <c r="AA29" s="16"/>
-      <c r="AB29" s="17"/>
-      <c r="AC29" s="18"/>
+      <c r="AA29" s="39"/>
+      <c r="AB29" s="40"/>
+      <c r="AC29" s="41"/>
     </row>
     <row r="30" spans="1:29" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
@@ -2783,9 +2753,9 @@
       <c r="X30" s="8"/>
       <c r="Y30" s="10"/>
       <c r="Z30" s="11"/>
-      <c r="AA30" s="16"/>
-      <c r="AB30" s="17"/>
-      <c r="AC30" s="18"/>
+      <c r="AA30" s="39"/>
+      <c r="AB30" s="40"/>
+      <c r="AC30" s="41"/>
     </row>
     <row r="31" spans="1:29" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
@@ -2814,9 +2784,9 @@
       <c r="X31" s="8"/>
       <c r="Y31" s="10"/>
       <c r="Z31" s="11"/>
-      <c r="AA31" s="16"/>
-      <c r="AB31" s="17"/>
-      <c r="AC31" s="18"/>
+      <c r="AA31" s="39"/>
+      <c r="AB31" s="40"/>
+      <c r="AC31" s="41"/>
     </row>
     <row r="32" spans="1:29" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
@@ -2845,9 +2815,9 @@
       <c r="X32" s="8"/>
       <c r="Y32" s="10"/>
       <c r="Z32" s="11"/>
-      <c r="AA32" s="16"/>
-      <c r="AB32" s="17"/>
-      <c r="AC32" s="18"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="40"/>
+      <c r="AC32" s="41"/>
     </row>
     <row r="33" spans="1:29" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
@@ -2876,9 +2846,9 @@
       <c r="X33" s="8"/>
       <c r="Y33" s="10"/>
       <c r="Z33" s="11"/>
-      <c r="AA33" s="16"/>
-      <c r="AB33" s="17"/>
-      <c r="AC33" s="18"/>
+      <c r="AA33" s="39"/>
+      <c r="AB33" s="40"/>
+      <c r="AC33" s="41"/>
     </row>
     <row r="34" spans="1:29" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
@@ -2907,9 +2877,9 @@
       <c r="X34" s="8"/>
       <c r="Y34" s="10"/>
       <c r="Z34" s="11"/>
-      <c r="AA34" s="16"/>
-      <c r="AB34" s="17"/>
-      <c r="AC34" s="18"/>
+      <c r="AA34" s="39"/>
+      <c r="AB34" s="40"/>
+      <c r="AC34" s="41"/>
     </row>
     <row r="35" spans="1:29" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
@@ -2938,9 +2908,9 @@
       <c r="X35" s="8"/>
       <c r="Y35" s="10"/>
       <c r="Z35" s="11"/>
-      <c r="AA35" s="16"/>
-      <c r="AB35" s="17"/>
-      <c r="AC35" s="18"/>
+      <c r="AA35" s="39"/>
+      <c r="AB35" s="40"/>
+      <c r="AC35" s="41"/>
     </row>
     <row r="36" spans="1:29" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
@@ -2969,9 +2939,9 @@
       <c r="X36" s="8"/>
       <c r="Y36" s="10"/>
       <c r="Z36" s="11"/>
-      <c r="AA36" s="16"/>
-      <c r="AB36" s="17"/>
-      <c r="AC36" s="18"/>
+      <c r="AA36" s="39"/>
+      <c r="AB36" s="40"/>
+      <c r="AC36" s="41"/>
     </row>
     <row r="37" spans="1:29" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
@@ -3000,50 +2970,54 @@
       <c r="X37" s="8"/>
       <c r="Y37" s="10"/>
       <c r="Z37" s="9"/>
-      <c r="AA37" s="80"/>
-      <c r="AB37" s="80"/>
-      <c r="AC37" s="81"/>
-    </row>
-    <row r="38" spans="1:29" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="101" t="s">
+      <c r="AA37" s="15"/>
+      <c r="AB37" s="15"/>
+      <c r="AC37" s="16"/>
+    </row>
+    <row r="38" spans="1:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="102"/>
-      <c r="C38" s="102"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="108"/>
-      <c r="T38" s="109"/>
-      <c r="U38" s="109"/>
-      <c r="V38" s="109"/>
-      <c r="W38" s="109"/>
-      <c r="X38" s="109"/>
-      <c r="Y38" s="109"/>
-      <c r="Z38" s="110"/>
-      <c r="AA38" s="104"/>
-      <c r="AB38" s="105"/>
-      <c r="AC38" s="106"/>
-    </row>
-    <row r="39" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="96"/>
-      <c r="B39" s="97"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="99"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="34"/>
+      <c r="AB38" s="35"/>
+      <c r="AC38" s="36"/>
+    </row>
+    <row r="39" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
@@ -3055,150 +3029,136 @@
       <c r="O39" s="15"/>
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
-      <c r="R39" s="100"/>
-      <c r="S39" s="99"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="15"/>
-      <c r="Y39" s="15"/>
-      <c r="Z39" s="100"/>
-      <c r="AA39" s="99"/>
-      <c r="AB39" s="15"/>
-      <c r="AC39" s="107"/>
-    </row>
-    <row r="40" spans="1:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="86"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="80" t="s">
-        <v>40</v>
-      </c>
-      <c r="G40" s="80"/>
-      <c r="H40" s="80"/>
-      <c r="I40" s="80"/>
-      <c r="J40" s="80"/>
-      <c r="K40" s="80"/>
-      <c r="L40" s="80"/>
-      <c r="M40" s="80"/>
-      <c r="N40" s="80"/>
-      <c r="O40" s="80"/>
-      <c r="P40" s="80"/>
-      <c r="Q40" s="80"/>
-      <c r="R40" s="80"/>
-      <c r="S40" s="88" t="s">
+      <c r="R39" s="15"/>
+      <c r="S39" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="T40" s="89"/>
-      <c r="U40" s="89"/>
-      <c r="V40" s="89"/>
-      <c r="W40" s="89"/>
-      <c r="X40" s="89"/>
-      <c r="Y40" s="89"/>
-      <c r="Z40" s="90"/>
-      <c r="AA40" s="91"/>
-      <c r="AB40" s="92"/>
-      <c r="AC40" s="93"/>
-    </row>
-    <row r="41" spans="1:29" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="94" t="s">
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="22"/>
+      <c r="AA39" s="23"/>
+      <c r="AB39" s="24"/>
+      <c r="AC39" s="25"/>
+    </row>
+    <row r="40" spans="1:29" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="95"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="22"/>
-      <c r="S41" s="22"/>
-      <c r="T41" s="22"/>
-      <c r="U41" s="22"/>
-      <c r="V41" s="22"/>
-      <c r="W41" s="22"/>
-      <c r="X41" s="22"/>
-      <c r="Y41" s="22"/>
-      <c r="Z41" s="22"/>
-      <c r="AA41" s="22"/>
-      <c r="AB41" s="22"/>
-      <c r="AC41" s="23"/>
-    </row>
-    <row r="42" spans="1:29" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="82" t="s">
+      <c r="B40" s="27"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="66"/>
+      <c r="O40" s="66"/>
+      <c r="P40" s="66"/>
+      <c r="Q40" s="66"/>
+      <c r="R40" s="66"/>
+      <c r="S40" s="66"/>
+      <c r="T40" s="66"/>
+      <c r="U40" s="66"/>
+      <c r="V40" s="66"/>
+      <c r="W40" s="66"/>
+      <c r="X40" s="66"/>
+      <c r="Y40" s="66"/>
+      <c r="Z40" s="66"/>
+      <c r="AA40" s="66"/>
+      <c r="AB40" s="66"/>
+      <c r="AC40" s="67"/>
+    </row>
+    <row r="41" spans="1:29" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="83"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="83"/>
-      <c r="J42" s="83"/>
-      <c r="K42" s="83"/>
-      <c r="L42" s="83"/>
-      <c r="M42" s="83"/>
-      <c r="N42" s="83"/>
-      <c r="O42" s="83"/>
-      <c r="P42" s="83"/>
-      <c r="Q42" s="83"/>
-      <c r="R42" s="83"/>
-      <c r="S42" s="83"/>
-      <c r="T42" s="83"/>
-      <c r="U42" s="83"/>
-      <c r="V42" s="83"/>
-      <c r="W42" s="83"/>
-      <c r="X42" s="83"/>
-      <c r="Y42" s="83"/>
-      <c r="Z42" s="83"/>
-      <c r="AA42" s="83"/>
-      <c r="AB42" s="83"/>
-      <c r="AC42" s="84"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
+      <c r="Y41" s="13"/>
+      <c r="Z41" s="13"/>
+      <c r="AA41" s="13"/>
+      <c r="AB41" s="13"/>
+      <c r="AC41" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="88">
-    <mergeCell ref="A42:AC42"/>
-    <mergeCell ref="AA37:AC37"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="F40:R40"/>
-    <mergeCell ref="S40:Z40"/>
-    <mergeCell ref="AA40:AC40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="F39:R39"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="S39:Z39"/>
-    <mergeCell ref="AA38:AC38"/>
-    <mergeCell ref="AA39:AC39"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AA11:AC11"/>
+  <mergeCells count="85">
+    <mergeCell ref="AA33:AC33"/>
+    <mergeCell ref="AA34:AC34"/>
+    <mergeCell ref="AA35:AC35"/>
+    <mergeCell ref="AA36:AC36"/>
+    <mergeCell ref="F38:R38"/>
+    <mergeCell ref="S38:Z38"/>
+    <mergeCell ref="AA28:AC28"/>
+    <mergeCell ref="AA29:AC29"/>
+    <mergeCell ref="AA30:AC30"/>
+    <mergeCell ref="AA31:AC31"/>
+    <mergeCell ref="AA32:AC32"/>
+    <mergeCell ref="AA23:AC23"/>
+    <mergeCell ref="AA24:AC24"/>
+    <mergeCell ref="AA25:AC25"/>
+    <mergeCell ref="AA26:AC26"/>
+    <mergeCell ref="AA27:AC27"/>
+    <mergeCell ref="AA18:AC18"/>
+    <mergeCell ref="AA19:AC19"/>
+    <mergeCell ref="AA20:AC20"/>
+    <mergeCell ref="AA21:AC21"/>
+    <mergeCell ref="AA22:AC22"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="AA14:AC14"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="AA17:AC17"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C40:AC40"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="C2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:Z4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="F5:R5"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="O3:U3"/>
     <mergeCell ref="Y3:AC3"/>
     <mergeCell ref="S6:S7"/>
     <mergeCell ref="S5:Z5"/>
@@ -3215,52 +3175,28 @@
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="F5:R5"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="O3:U3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C41:AC41"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="C2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:Z4"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="AA14:AC14"/>
-    <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="AA17:AC17"/>
-    <mergeCell ref="AA18:AC18"/>
-    <mergeCell ref="AA19:AC19"/>
-    <mergeCell ref="AA20:AC20"/>
-    <mergeCell ref="AA21:AC21"/>
-    <mergeCell ref="AA22:AC22"/>
-    <mergeCell ref="AA23:AC23"/>
-    <mergeCell ref="AA24:AC24"/>
-    <mergeCell ref="AA25:AC25"/>
-    <mergeCell ref="AA26:AC26"/>
-    <mergeCell ref="AA27:AC27"/>
-    <mergeCell ref="AA28:AC28"/>
-    <mergeCell ref="AA29:AC29"/>
-    <mergeCell ref="AA30:AC30"/>
-    <mergeCell ref="AA31:AC31"/>
-    <mergeCell ref="AA32:AC32"/>
-    <mergeCell ref="J38:N38"/>
-    <mergeCell ref="AA33:AC33"/>
-    <mergeCell ref="AA34:AC34"/>
-    <mergeCell ref="AA35:AC35"/>
-    <mergeCell ref="AA36:AC36"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="A41:AC41"/>
+    <mergeCell ref="AA37:AC37"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="F39:R39"/>
+    <mergeCell ref="S39:Z39"/>
+    <mergeCell ref="AA39:AC39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="AA38:AC38"/>
   </mergeCells>
   <conditionalFormatting sqref="A3 C3:E3 L3 O3 V3 Y3">
     <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="N/A">
